--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3177,28 +3177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>912.8064624306103</v>
+        <v>985.8947252581078</v>
       </c>
       <c r="AB2" t="n">
-        <v>1248.942072076557</v>
+        <v>1348.944657703727</v>
       </c>
       <c r="AC2" t="n">
-        <v>1129.744793618777</v>
+        <v>1220.2032728282</v>
       </c>
       <c r="AD2" t="n">
-        <v>912806.4624306103</v>
+        <v>985894.7252581078</v>
       </c>
       <c r="AE2" t="n">
-        <v>1248942.072076557</v>
+        <v>1348944.657703727</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.402637922824659e-06</v>
+        <v>2.595247388072886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1129744.793618777</v>
+        <v>1220203.2728282</v>
       </c>
     </row>
     <row r="3">
@@ -3283,28 +3283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.2808971228123</v>
+        <v>492.9779587229534</v>
       </c>
       <c r="AB3" t="n">
-        <v>607.8847237332948</v>
+        <v>674.5141917773418</v>
       </c>
       <c r="AC3" t="n">
-        <v>549.8690588717566</v>
+        <v>610.1395040007253</v>
       </c>
       <c r="AD3" t="n">
-        <v>444280.8971228123</v>
+        <v>492977.9587229534</v>
       </c>
       <c r="AE3" t="n">
-        <v>607884.7237332948</v>
+        <v>674514.1917773418</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.19484871794995e-06</v>
+        <v>4.061044771271877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.923828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>549869.0588717565</v>
+        <v>610139.5040007253</v>
       </c>
     </row>
     <row r="4">
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.2087670030004</v>
+        <v>408.7103174980144</v>
       </c>
       <c r="AB4" t="n">
-        <v>509.2724557053921</v>
+        <v>559.2154874274263</v>
       </c>
       <c r="AC4" t="n">
-        <v>460.6682073012495</v>
+        <v>505.8447461712179</v>
       </c>
       <c r="AD4" t="n">
-        <v>372208.7670030004</v>
+        <v>408710.3174980144</v>
       </c>
       <c r="AE4" t="n">
-        <v>509272.4557053921</v>
+        <v>559215.4874274263</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.494086855649013e-06</v>
+        <v>4.614713670877388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.092122395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>460668.2073012495</v>
+        <v>505844.7461712179</v>
       </c>
     </row>
     <row r="5">
@@ -3495,28 +3495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.9484681663524</v>
+        <v>364.5352700073869</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.713562210515</v>
+        <v>498.7732385851985</v>
       </c>
       <c r="AC5" t="n">
-        <v>405.8889696065826</v>
+        <v>451.1710207272633</v>
       </c>
       <c r="AD5" t="n">
-        <v>327948.4681663524</v>
+        <v>364535.2700073869</v>
       </c>
       <c r="AE5" t="n">
-        <v>448713.562210515</v>
+        <v>498773.2385851985</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.652062184506054e-06</v>
+        <v>4.90700938948348e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.730794270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>405888.9696065827</v>
+        <v>451171.0207272634</v>
       </c>
     </row>
     <row r="6">
@@ -3601,28 +3601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.2180745322642</v>
+        <v>344.8048763732987</v>
       </c>
       <c r="AB6" t="n">
-        <v>421.7175671968213</v>
+        <v>471.7772435715046</v>
       </c>
       <c r="AC6" t="n">
-        <v>381.4694344678788</v>
+        <v>426.7514855885595</v>
       </c>
       <c r="AD6" t="n">
-        <v>308218.0745322641</v>
+        <v>344804.8763732986</v>
       </c>
       <c r="AE6" t="n">
-        <v>421717.5671968213</v>
+        <v>471777.2435715047</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.754297991301834e-06</v>
+        <v>5.096172398865083e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.517578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>381469.4344678788</v>
+        <v>426751.4855885595</v>
       </c>
     </row>
     <row r="7">
@@ -3707,28 +3707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>293.1423741464437</v>
+        <v>329.5585837868859</v>
       </c>
       <c r="AB7" t="n">
-        <v>401.0903288359806</v>
+        <v>450.916593435817</v>
       </c>
       <c r="AC7" t="n">
-        <v>362.8108307856858</v>
+        <v>407.8817466237155</v>
       </c>
       <c r="AD7" t="n">
-        <v>293142.3741464437</v>
+        <v>329558.583786886</v>
       </c>
       <c r="AE7" t="n">
-        <v>401090.3288359806</v>
+        <v>450916.593435817</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.82506944477325e-06</v>
+        <v>5.227118116774904e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.379231770833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>362810.8307856858</v>
+        <v>407881.7466237155</v>
       </c>
     </row>
     <row r="8">
@@ -3813,28 +3813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>280.5219595120842</v>
+        <v>304.9132502479915</v>
       </c>
       <c r="AB8" t="n">
-        <v>383.8225207598513</v>
+        <v>417.195760812522</v>
       </c>
       <c r="AC8" t="n">
-        <v>347.1910380768215</v>
+        <v>377.3791829385019</v>
       </c>
       <c r="AD8" t="n">
-        <v>280521.9595120841</v>
+        <v>304913.2502479915</v>
       </c>
       <c r="AE8" t="n">
-        <v>383822.5207598513</v>
+        <v>417195.760812522</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.880808966834511e-06</v>
+        <v>5.330250825999394e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.275065104166666</v>
       </c>
       <c r="AH8" t="n">
-        <v>347191.0380768215</v>
+        <v>377379.1829385019</v>
       </c>
     </row>
     <row r="9">
@@ -3919,28 +3919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>271.3610664884291</v>
+        <v>295.7523572243365</v>
       </c>
       <c r="AB9" t="n">
-        <v>371.2881827748098</v>
+        <v>404.6614228274804</v>
       </c>
       <c r="AC9" t="n">
-        <v>335.8529597170185</v>
+        <v>366.0411045786989</v>
       </c>
       <c r="AD9" t="n">
-        <v>271361.0664884291</v>
+        <v>295752.3572243365</v>
       </c>
       <c r="AE9" t="n">
-        <v>371288.1827748098</v>
+        <v>404661.4228274804</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.912833516360496e-06</v>
+        <v>5.389504627111623e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.216471354166666</v>
       </c>
       <c r="AH9" t="n">
-        <v>335852.9597170185</v>
+        <v>366041.1045786989</v>
       </c>
     </row>
     <row r="10">
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>267.902931019897</v>
+        <v>292.2942217558044</v>
       </c>
       <c r="AB10" t="n">
-        <v>366.5566092645946</v>
+        <v>399.9298493172653</v>
       </c>
       <c r="AC10" t="n">
-        <v>331.5729609418132</v>
+        <v>361.7611058034935</v>
       </c>
       <c r="AD10" t="n">
-        <v>267902.931019897</v>
+        <v>292294.2217558044</v>
       </c>
       <c r="AE10" t="n">
-        <v>366556.6092645946</v>
+        <v>399929.8493172653</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.92431753849372e-06</v>
+        <v>5.410753074740789e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.196940104166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>331572.9609418132</v>
+        <v>361761.1058034935</v>
       </c>
     </row>
     <row r="11">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>267.7498544020494</v>
+        <v>292.1411451379568</v>
       </c>
       <c r="AB11" t="n">
-        <v>366.3471630827917</v>
+        <v>399.7204031354623</v>
       </c>
       <c r="AC11" t="n">
-        <v>331.383504009642</v>
+        <v>361.5716488713223</v>
       </c>
       <c r="AD11" t="n">
-        <v>267749.8544020494</v>
+        <v>292141.1451379568</v>
       </c>
       <c r="AE11" t="n">
-        <v>366347.1630827917</v>
+        <v>399720.4031354623</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.931786821181996e-06</v>
+        <v>5.424573203280083e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.183919270833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>331383.5040096419</v>
+        <v>361571.6488713223</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>646.9980688499667</v>
+        <v>694.0530068893866</v>
       </c>
       <c r="AB2" t="n">
-        <v>885.2513013408206</v>
+        <v>949.6339434837106</v>
       </c>
       <c r="AC2" t="n">
-        <v>800.764159598857</v>
+        <v>859.0022127372349</v>
       </c>
       <c r="AD2" t="n">
-        <v>646998.0688499666</v>
+        <v>694053.0068893866</v>
       </c>
       <c r="AE2" t="n">
-        <v>885251.3013408206</v>
+        <v>949633.9434837106</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.721642874196658e-06</v>
+        <v>3.281717023493184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.130859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>800764.1595988569</v>
+        <v>859002.2127372349</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.2629828919767</v>
+        <v>399.4688679441078</v>
       </c>
       <c r="AB3" t="n">
-        <v>498.4006833414346</v>
+        <v>546.5709284437913</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.8340216330797</v>
+        <v>494.4069661502312</v>
       </c>
       <c r="AD3" t="n">
-        <v>364262.9828919767</v>
+        <v>399468.8679441079</v>
       </c>
       <c r="AE3" t="n">
-        <v>498400.6833414346</v>
+        <v>546570.9284437913</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.457240749645845e-06</v>
+        <v>4.683880100683875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.398111979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>450834.0216330797</v>
+        <v>494406.9661502312</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.5279614495722</v>
+        <v>335.8190978477239</v>
       </c>
       <c r="AB4" t="n">
-        <v>411.1956152132369</v>
+        <v>459.4825049682429</v>
       </c>
       <c r="AC4" t="n">
-        <v>371.9516828139554</v>
+        <v>415.6301395818192</v>
       </c>
       <c r="AD4" t="n">
-        <v>300527.9614495722</v>
+        <v>335819.0978477239</v>
       </c>
       <c r="AE4" t="n">
-        <v>411195.6152132369</v>
+        <v>459482.504968243</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.732703609517311e-06</v>
+        <v>5.208954824442785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.751953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>371951.6828139554</v>
+        <v>415630.1395818192</v>
       </c>
     </row>
     <row r="5">
@@ -4746,28 +4746,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.3840645335431</v>
+        <v>311.5046087311026</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.1608702991688</v>
+        <v>426.2143482793279</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.0697275899302</v>
+        <v>385.5370490751429</v>
       </c>
       <c r="AD5" t="n">
-        <v>276384.0645335431</v>
+        <v>311504.6087311026</v>
       </c>
       <c r="AE5" t="n">
-        <v>378160.8702991689</v>
+        <v>426214.3482793279</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.870338453597548e-06</v>
+        <v>5.47130807877534e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.476888020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>342069.7275899302</v>
+        <v>385537.0490751429</v>
       </c>
     </row>
     <row r="6">
@@ -4852,28 +4852,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>258.8952402145914</v>
+        <v>294.015784412151</v>
       </c>
       <c r="AB6" t="n">
-        <v>354.2318893135036</v>
+        <v>402.2853672936627</v>
       </c>
       <c r="AC6" t="n">
-        <v>320.4244949650013</v>
+        <v>363.8918164502139</v>
       </c>
       <c r="AD6" t="n">
-        <v>258895.2402145914</v>
+        <v>294015.784412151</v>
       </c>
       <c r="AE6" t="n">
-        <v>354231.8893135036</v>
+        <v>402285.3672936627</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.959680369930334e-06</v>
+        <v>5.641607559657876e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.310872395833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>320424.4949650012</v>
+        <v>363891.8164502139</v>
       </c>
     </row>
     <row r="7">
@@ -4958,28 +4958,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>245.9208513264271</v>
+        <v>269.4483651004156</v>
       </c>
       <c r="AB7" t="n">
-        <v>336.479758046918</v>
+        <v>368.6711403532999</v>
       </c>
       <c r="AC7" t="n">
-        <v>304.3666021913268</v>
+        <v>333.4856841511755</v>
       </c>
       <c r="AD7" t="n">
-        <v>245920.8513264271</v>
+        <v>269448.3651004157</v>
       </c>
       <c r="AE7" t="n">
-        <v>336479.758046918</v>
+        <v>368671.1403532999</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.015603580261883e-06</v>
+        <v>5.748205829312997e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.213216145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>304366.6021913268</v>
+        <v>333485.6841511755</v>
       </c>
     </row>
     <row r="8">
@@ -5064,28 +5064,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>246.0643215303585</v>
+        <v>269.5918353043471</v>
       </c>
       <c r="AB8" t="n">
-        <v>336.6760603093956</v>
+        <v>368.8674426157775</v>
       </c>
       <c r="AC8" t="n">
-        <v>304.5441696413855</v>
+        <v>333.6632516012342</v>
       </c>
       <c r="AD8" t="n">
-        <v>246064.3215303585</v>
+        <v>269591.835304347</v>
       </c>
       <c r="AE8" t="n">
-        <v>336676.0603093955</v>
+        <v>368867.4426157775</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.022171418435537e-06</v>
+        <v>5.7607251425022e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.201822916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>304544.1696413855</v>
+        <v>333663.2516012342</v>
       </c>
     </row>
   </sheetData>
@@ -5361,28 +5361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.5057228163638</v>
+        <v>295.8107989439159</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.9083991262721</v>
+        <v>404.7413853664756</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.3683694552882</v>
+        <v>366.1134356052006</v>
       </c>
       <c r="AD2" t="n">
-        <v>264505.7228163638</v>
+        <v>295810.7989439159</v>
       </c>
       <c r="AE2" t="n">
-        <v>361908.3991262721</v>
+        <v>404741.3853664756</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.750975874060596e-06</v>
+        <v>5.858858673290726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.376953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>327368.3694552882</v>
+        <v>366113.4356052006</v>
       </c>
     </row>
     <row r="3">
@@ -5467,28 +5467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.4353481178022</v>
+        <v>225.6550833907822</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.0350211768171</v>
+        <v>308.7512402948009</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.6450121382767</v>
+        <v>279.2844552562439</v>
       </c>
       <c r="AD3" t="n">
-        <v>194435.3481178022</v>
+        <v>225655.0833907822</v>
       </c>
       <c r="AE3" t="n">
-        <v>266035.0211768171</v>
+        <v>308751.240294801</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.229715730380955e-06</v>
+        <v>6.878449279627939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.431315104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>240645.0121382767</v>
+        <v>279284.4552562439</v>
       </c>
     </row>
     <row r="4">
@@ -5573,28 +5573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.516956209327</v>
+        <v>226.736691482307</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.514925084822</v>
+        <v>310.2311442028059</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.9836760943602</v>
+        <v>280.6231192123275</v>
       </c>
       <c r="AD4" t="n">
-        <v>195516.956209327</v>
+        <v>226736.691482307</v>
       </c>
       <c r="AE4" t="n">
-        <v>267514.925084822</v>
+        <v>310231.1442028059</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.230685712079938e-06</v>
+        <v>6.880515086799716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>241983.6760943602</v>
+        <v>280623.1192123275</v>
       </c>
     </row>
   </sheetData>
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>372.082017678331</v>
+        <v>404.9974953254831</v>
       </c>
       <c r="AB2" t="n">
-        <v>509.0990316875938</v>
+        <v>554.1354403328151</v>
       </c>
       <c r="AC2" t="n">
-        <v>460.5113346283077</v>
+        <v>501.2495316414254</v>
       </c>
       <c r="AD2" t="n">
-        <v>372082.017678331</v>
+        <v>404997.4953254831</v>
       </c>
       <c r="AE2" t="n">
-        <v>509099.0316875938</v>
+        <v>554135.4403328151</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332146349492949e-06</v>
+        <v>4.735063386304717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.195638020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>460511.3346283077</v>
+        <v>501249.5316414254</v>
       </c>
     </row>
     <row r="3">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.5500622895651</v>
+        <v>277.4654504281692</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.6041840117401</v>
+        <v>379.6404701875748</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.6700303096811</v>
+        <v>343.4081165416183</v>
       </c>
       <c r="AD3" t="n">
-        <v>244550.0622895651</v>
+        <v>277465.4504281692</v>
       </c>
       <c r="AE3" t="n">
-        <v>334604.1840117401</v>
+        <v>379640.4701875748</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.948099410718949e-06</v>
+        <v>5.985661055069225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.691731770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>302670.0303096811</v>
+        <v>343408.1165416183</v>
       </c>
     </row>
     <row r="4">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.1687187384612</v>
+        <v>246.9135146764696</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.035089434859</v>
+        <v>337.8379638356618</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.0682317766135</v>
+        <v>305.5951827258471</v>
       </c>
       <c r="AD4" t="n">
-        <v>214168.7187384612</v>
+        <v>246913.5146764696</v>
       </c>
       <c r="AE4" t="n">
-        <v>293035.089434859</v>
+        <v>337837.9638356618</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.158331799711218e-06</v>
+        <v>6.412505488716837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.314127604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>265068.2317766135</v>
+        <v>305595.1827258471</v>
       </c>
     </row>
     <row r="5">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.8619177076869</v>
+        <v>245.6067136456953</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.2470666125619</v>
+        <v>336.0499410133646</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.45085534297</v>
+        <v>303.9778062922036</v>
       </c>
       <c r="AD5" t="n">
-        <v>212861.9177076869</v>
+        <v>245606.7136456953</v>
       </c>
       <c r="AE5" t="n">
-        <v>291247.0666125619</v>
+        <v>336049.9410133646</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.173797644904371e-06</v>
+        <v>6.443906501491305e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.288085937500001</v>
       </c>
       <c r="AH5" t="n">
-        <v>263450.8553429701</v>
+        <v>303977.8062922036</v>
       </c>
     </row>
   </sheetData>
@@ -6485,28 +6485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.372443996813</v>
+        <v>222.5119088877931</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.2124647495745</v>
+        <v>304.4506102727411</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.0918365349665</v>
+        <v>275.3942713275159</v>
       </c>
       <c r="AD2" t="n">
-        <v>192372.4439968131</v>
+        <v>222511.9088877931</v>
       </c>
       <c r="AE2" t="n">
-        <v>263212.4647495745</v>
+        <v>304450.6102727411</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.125314212032992e-06</v>
+        <v>6.959464301195867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.830078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>238091.8365349665</v>
+        <v>275394.2713275159</v>
       </c>
     </row>
     <row r="3">
@@ -6591,28 +6591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.6293394123762</v>
+        <v>211.7688043033563</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.513275104831</v>
+        <v>289.7514206279976</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.7955169194704</v>
+        <v>262.0979517120197</v>
       </c>
       <c r="AD3" t="n">
-        <v>181629.3394123762</v>
+        <v>211768.8043033563</v>
       </c>
       <c r="AE3" t="n">
-        <v>248513.275104831</v>
+        <v>289751.4206279975</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.243404770884567e-06</v>
+        <v>7.222428909833152e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.616861979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>224795.5169194704</v>
+        <v>262097.9517120197</v>
       </c>
     </row>
   </sheetData>
@@ -6888,28 +6888,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>705.5162863319989</v>
+        <v>764.902437969958</v>
       </c>
       <c r="AB2" t="n">
-        <v>965.3185081412895</v>
+        <v>1046.57326074445</v>
       </c>
       <c r="AC2" t="n">
-        <v>873.1898645573194</v>
+        <v>946.6897776137957</v>
       </c>
       <c r="AD2" t="n">
-        <v>705516.2863319989</v>
+        <v>764902.4379699579</v>
       </c>
       <c r="AE2" t="n">
-        <v>965318.5081412895</v>
+        <v>1046573.26074445</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.631708695533983e-06</v>
+        <v>3.085175519291602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.547526041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>873189.8645573194</v>
+        <v>946689.7776137957</v>
       </c>
     </row>
     <row r="3">
@@ -6994,28 +6994,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.2068888167333</v>
+        <v>419.9239206540804</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.6888152907183</v>
+        <v>574.5584339748121</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.5178125682575</v>
+        <v>519.7233834340822</v>
       </c>
       <c r="AD3" t="n">
-        <v>384206.8888167333</v>
+        <v>419923.9206540804</v>
       </c>
       <c r="AE3" t="n">
-        <v>525688.8152907182</v>
+        <v>574558.4339748122</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.384532587736409e-06</v>
+        <v>4.508587583539179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.533203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>475517.8125682575</v>
+        <v>519723.3834340821</v>
       </c>
     </row>
     <row r="4">
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>316.0472194349302</v>
+        <v>351.6789104177058</v>
       </c>
       <c r="AB4" t="n">
-        <v>432.4297486501451</v>
+        <v>481.1826002120415</v>
       </c>
       <c r="AC4" t="n">
-        <v>391.1592603579386</v>
+        <v>435.2592081918244</v>
       </c>
       <c r="AD4" t="n">
-        <v>316047.2194349302</v>
+        <v>351678.9104177058</v>
       </c>
       <c r="AE4" t="n">
-        <v>432429.7486501451</v>
+        <v>481182.6002120415</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.664604133646682e-06</v>
+        <v>5.038136687161354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>391159.2603579386</v>
+        <v>435259.2081918244</v>
       </c>
     </row>
     <row r="5">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>288.3091733371013</v>
+        <v>323.9408643198769</v>
       </c>
       <c r="AB5" t="n">
-        <v>394.4773302628673</v>
+        <v>443.2301818247636</v>
       </c>
       <c r="AC5" t="n">
-        <v>356.8289675149887</v>
+        <v>400.9289153488746</v>
       </c>
       <c r="AD5" t="n">
-        <v>288309.1733371013</v>
+        <v>323940.8643198769</v>
       </c>
       <c r="AE5" t="n">
-        <v>394477.3302628673</v>
+        <v>443230.1818247637</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.819093359586252e-06</v>
+        <v>5.330239302761556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.525716145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>356828.9675149887</v>
+        <v>400928.9153488746</v>
       </c>
     </row>
     <row r="6">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>270.8788655010258</v>
+        <v>306.3399642832092</v>
       </c>
       <c r="AB6" t="n">
-        <v>370.6284141106385</v>
+        <v>419.1478538976877</v>
       </c>
       <c r="AC6" t="n">
-        <v>335.2561584481646</v>
+        <v>379.1449709993993</v>
       </c>
       <c r="AD6" t="n">
-        <v>270878.8655010258</v>
+        <v>306339.9642832092</v>
       </c>
       <c r="AE6" t="n">
-        <v>370628.4141106384</v>
+        <v>419147.8538976877</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.909642806760251e-06</v>
+        <v>5.501446907692035e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.354817708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>335256.1584481646</v>
+        <v>379144.9709993993</v>
       </c>
     </row>
     <row r="7">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>256.2800231422203</v>
+        <v>280.0345733059582</v>
       </c>
       <c r="AB7" t="n">
-        <v>350.6536339396851</v>
+        <v>383.1556574506679</v>
       </c>
       <c r="AC7" t="n">
-        <v>317.1877432620525</v>
+        <v>346.587819265918</v>
       </c>
       <c r="AD7" t="n">
-        <v>256280.0231422203</v>
+        <v>280034.5733059582</v>
       </c>
       <c r="AE7" t="n">
-        <v>350653.6339396851</v>
+        <v>383155.6574506679</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.976166977781317e-06</v>
+        <v>5.627228393343918e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.234374999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>317187.7432620525</v>
+        <v>346587.819265918</v>
       </c>
     </row>
     <row r="8">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>250.9676707741197</v>
+        <v>274.7222209378576</v>
       </c>
       <c r="AB8" t="n">
-        <v>343.3850390652078</v>
+        <v>375.8870625761868</v>
       </c>
       <c r="AC8" t="n">
-        <v>310.612852880856</v>
+        <v>340.0129288847206</v>
       </c>
       <c r="AD8" t="n">
-        <v>250967.6707741197</v>
+        <v>274722.2209378576</v>
       </c>
       <c r="AE8" t="n">
-        <v>343385.0390652078</v>
+        <v>375887.0625761868</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.999522226312454e-06</v>
+        <v>5.671387648738249e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.193684895833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>310612.852880856</v>
+        <v>340012.9288847205</v>
       </c>
     </row>
     <row r="9">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>251.899516901652</v>
+        <v>275.6540670653899</v>
       </c>
       <c r="AB9" t="n">
-        <v>344.6600320470465</v>
+        <v>377.1620555580262</v>
       </c>
       <c r="AC9" t="n">
-        <v>311.7661623219723</v>
+        <v>341.166238325837</v>
       </c>
       <c r="AD9" t="n">
-        <v>251899.516901652</v>
+        <v>275654.0670653899</v>
       </c>
       <c r="AE9" t="n">
-        <v>344660.0320470465</v>
+        <v>377162.0555580262</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.998852198690659e-06</v>
+        <v>5.670120784853986e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>311766.1623219723</v>
+        <v>341166.238325837</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.1193687183312</v>
+        <v>203.5181356727271</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.2378018847199</v>
+        <v>278.4624918137658</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.5007204417662</v>
+        <v>251.8864224197036</v>
       </c>
       <c r="AD2" t="n">
-        <v>174119.3687183312</v>
+        <v>203518.1356727271</v>
       </c>
       <c r="AE2" t="n">
-        <v>238237.8018847199</v>
+        <v>278462.4918137658</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.208241127492209e-06</v>
+        <v>7.355106929046027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.812174479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215500.7204417662</v>
+        <v>251886.4224197037</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.1150365793137</v>
+        <v>204.5138035337096</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.6001185778814</v>
+        <v>279.8248085069274</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.7330195417562</v>
+        <v>253.1187215196937</v>
       </c>
       <c r="AD3" t="n">
-        <v>175115.0365793137</v>
+        <v>204513.8035337096</v>
       </c>
       <c r="AE3" t="n">
-        <v>239600.1185778814</v>
+        <v>279824.8085069273</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.216374277063813e-06</v>
+        <v>7.373752717311898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.797526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>216733.0195417562</v>
+        <v>253118.7215196937</v>
       </c>
     </row>
   </sheetData>
@@ -8330,28 +8330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>497.6035464977489</v>
+        <v>543.0994578183563</v>
       </c>
       <c r="AB2" t="n">
-        <v>680.8431250373474</v>
+        <v>743.0926380441531</v>
       </c>
       <c r="AC2" t="n">
-        <v>615.8644127531096</v>
+        <v>672.172919606286</v>
       </c>
       <c r="AD2" t="n">
-        <v>497603.5464977489</v>
+        <v>543099.4578183563</v>
       </c>
       <c r="AE2" t="n">
-        <v>680843.1250373473</v>
+        <v>743092.6380441531</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.996536550442897e-06</v>
+        <v>3.91318404686436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.111979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>615864.4127531096</v>
+        <v>672172.919606286</v>
       </c>
     </row>
     <row r="3">
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.3294435136983</v>
+        <v>343.4300641676487</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.2381912673585</v>
+        <v>469.8961648593005</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.8449323113333</v>
+        <v>425.0499343885376</v>
       </c>
       <c r="AD3" t="n">
-        <v>309329.4435136983</v>
+        <v>343430.0641676487</v>
       </c>
       <c r="AE3" t="n">
-        <v>423238.1912673585</v>
+        <v>469896.1648593005</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.681885063770924e-06</v>
+        <v>5.256457661515949e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.0400390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>382844.9323113333</v>
+        <v>425049.9343885375</v>
       </c>
     </row>
     <row r="4">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.2752364185828</v>
+        <v>292.4611084185537</v>
       </c>
       <c r="AB4" t="n">
-        <v>353.3835727671675</v>
+        <v>400.1581910117588</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.6571405592277</v>
+        <v>361.9676548871442</v>
       </c>
       <c r="AD4" t="n">
-        <v>258275.2364185828</v>
+        <v>292461.1084185537</v>
       </c>
       <c r="AE4" t="n">
-        <v>353383.5727671675</v>
+        <v>400158.1910117588</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.928777711014548e-06</v>
+        <v>5.740363838073317e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.530598958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>319657.1405592277</v>
+        <v>361967.6548871442</v>
       </c>
     </row>
     <row r="5">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>235.8045561831911</v>
+        <v>269.8198359825728</v>
       </c>
       <c r="AB5" t="n">
-        <v>322.638196732506</v>
+        <v>369.1794032024061</v>
       </c>
       <c r="AC5" t="n">
-        <v>291.8460600620045</v>
+        <v>333.9454391073143</v>
       </c>
       <c r="AD5" t="n">
-        <v>235804.5561831911</v>
+        <v>269819.8359825728</v>
       </c>
       <c r="AE5" t="n">
-        <v>322638.196732506</v>
+        <v>369179.4032024061</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.058543133024095e-06</v>
+        <v>5.994702271862438e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.296223958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>291846.0600620045</v>
+        <v>333945.4391073143</v>
       </c>
     </row>
     <row r="6">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>228.4143809392793</v>
+        <v>251.2050517811441</v>
       </c>
       <c r="AB6" t="n">
-        <v>312.5266329322694</v>
+        <v>343.7098342315293</v>
       </c>
       <c r="AC6" t="n">
-        <v>282.6995297191904</v>
+        <v>310.9066500523567</v>
       </c>
       <c r="AD6" t="n">
-        <v>228414.3809392793</v>
+        <v>251205.0517811441</v>
       </c>
       <c r="AE6" t="n">
-        <v>312526.6329322694</v>
+        <v>343709.8342315293</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.100836311209722e-06</v>
+        <v>6.077596316617328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.222981770833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>282699.5297191904</v>
+        <v>310906.6500523567</v>
       </c>
     </row>
   </sheetData>
@@ -9051,28 +9051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>587.2261875700465</v>
+        <v>645.3702330454978</v>
       </c>
       <c r="AB2" t="n">
-        <v>803.4687764243386</v>
+        <v>883.0240245780991</v>
       </c>
       <c r="AC2" t="n">
-        <v>726.786844077909</v>
+        <v>798.7494510043671</v>
       </c>
       <c r="AD2" t="n">
-        <v>587226.1875700465</v>
+        <v>645370.2330454978</v>
       </c>
       <c r="AE2" t="n">
-        <v>803468.7764243386</v>
+        <v>883024.0245780991</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.806053019331014e-06</v>
+        <v>3.472503705146671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.787434895833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>726786.844077909</v>
+        <v>798749.4510043671</v>
       </c>
     </row>
     <row r="3">
@@ -9157,28 +9157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.4517347592783</v>
+        <v>380.3041152112714</v>
       </c>
       <c r="AB3" t="n">
-        <v>472.66230375258</v>
+        <v>520.3488682655058</v>
       </c>
       <c r="AC3" t="n">
-        <v>427.5520768681427</v>
+        <v>470.6875025924684</v>
       </c>
       <c r="AD3" t="n">
-        <v>345451.7347592783</v>
+        <v>380304.1152112714</v>
       </c>
       <c r="AE3" t="n">
-        <v>472662.30375258</v>
+        <v>520348.8682655057</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.529527262349755e-06</v>
+        <v>4.863529861395026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.2744140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>427552.0768681427</v>
+        <v>470687.5025924685</v>
       </c>
     </row>
     <row r="4">
@@ -9263,28 +9263,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>287.0307945767727</v>
+        <v>321.9684263747864</v>
       </c>
       <c r="AB4" t="n">
-        <v>392.7281960448951</v>
+        <v>440.5314052104701</v>
       </c>
       <c r="AC4" t="n">
-        <v>355.2467682118545</v>
+        <v>398.4877061868926</v>
       </c>
       <c r="AD4" t="n">
-        <v>287030.7945767727</v>
+        <v>321968.4263747864</v>
       </c>
       <c r="AE4" t="n">
-        <v>392728.1960448951</v>
+        <v>440531.4052104701</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.792493574131633e-06</v>
+        <v>5.3691359993198e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.68359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>355246.7682118546</v>
+        <v>398487.7061868926</v>
       </c>
     </row>
     <row r="5">
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>263.2816385746995</v>
+        <v>298.0486781721211</v>
       </c>
       <c r="AB5" t="n">
-        <v>360.2335530640416</v>
+        <v>407.8033504547695</v>
       </c>
       <c r="AC5" t="n">
-        <v>325.8533683505758</v>
+        <v>368.8831710429627</v>
       </c>
       <c r="AD5" t="n">
-        <v>263281.6385746995</v>
+        <v>298048.6781721211</v>
       </c>
       <c r="AE5" t="n">
-        <v>360233.5530640416</v>
+        <v>407803.3504547696</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.928803141751607e-06</v>
+        <v>5.631218824984922e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.418294270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>325853.3683505758</v>
+        <v>368883.1710429627</v>
       </c>
     </row>
     <row r="6">
@@ -9475,28 +9475,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>245.5615911728358</v>
+        <v>268.853435213399</v>
       </c>
       <c r="AB6" t="n">
-        <v>335.9882024553352</v>
+        <v>367.8571310354295</v>
       </c>
       <c r="AC6" t="n">
-        <v>303.9219599755019</v>
+        <v>332.7493627401334</v>
       </c>
       <c r="AD6" t="n">
-        <v>245561.5911728358</v>
+        <v>268853.435213399</v>
       </c>
       <c r="AE6" t="n">
-        <v>335988.2024553352</v>
+        <v>367857.1310354295</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.01850614762455e-06</v>
+        <v>5.803691070773128e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.257161458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>303921.9599755019</v>
+        <v>332749.3627401334</v>
       </c>
     </row>
     <row r="7">
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>240.2194396752959</v>
+        <v>263.5112837158592</v>
       </c>
       <c r="AB7" t="n">
-        <v>328.6788350973143</v>
+        <v>360.5477636774048</v>
       </c>
       <c r="AC7" t="n">
-        <v>297.3101883793667</v>
+        <v>326.137591143997</v>
       </c>
       <c r="AD7" t="n">
-        <v>240219.439675296</v>
+        <v>263511.2837158592</v>
       </c>
       <c r="AE7" t="n">
-        <v>328678.8350973143</v>
+        <v>360547.7636774048</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.04804963760227e-06</v>
+        <v>5.860494429983809e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.206705729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>297310.1883793666</v>
+        <v>326137.591143997</v>
       </c>
     </row>
   </sheetData>
@@ -9878,28 +9878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>842.1296881559246</v>
+        <v>902.5087140067517</v>
       </c>
       <c r="AB2" t="n">
-        <v>1152.238991474712</v>
+        <v>1234.852238378437</v>
       </c>
       <c r="AC2" t="n">
-        <v>1042.270919305946</v>
+        <v>1116.9996738736</v>
       </c>
       <c r="AD2" t="n">
-        <v>842129.6881559246</v>
+        <v>902508.7140067517</v>
       </c>
       <c r="AE2" t="n">
-        <v>1152238.991474712</v>
+        <v>1234852.238378437</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.475494285984968e-06</v>
+        <v>2.748733943824423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.38248697916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1042270.919305946</v>
+        <v>1116999.6738736</v>
       </c>
     </row>
     <row r="3">
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.6763602884731</v>
+        <v>472.9624411913796</v>
       </c>
       <c r="AB3" t="n">
-        <v>581.0609315454278</v>
+        <v>647.1280776683298</v>
       </c>
       <c r="AC3" t="n">
-        <v>525.6052917628707</v>
+        <v>585.3670821856249</v>
       </c>
       <c r="AD3" t="n">
-        <v>424676.3602884731</v>
+        <v>472962.4411913796</v>
       </c>
       <c r="AE3" t="n">
-        <v>581060.9315454278</v>
+        <v>647128.0776683297</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.252298077062907e-06</v>
+        <v>4.195860488812736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.8017578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>525605.2917628707</v>
+        <v>585367.0821856249</v>
       </c>
     </row>
     <row r="4">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>356.8640666973108</v>
+        <v>393.0573816693988</v>
       </c>
       <c r="AB4" t="n">
-        <v>488.2771597867474</v>
+        <v>537.7984500679228</v>
       </c>
       <c r="AC4" t="n">
-        <v>441.6766729579973</v>
+        <v>486.4717207983048</v>
       </c>
       <c r="AD4" t="n">
-        <v>356864.0666973108</v>
+        <v>393057.3816693988</v>
       </c>
       <c r="AE4" t="n">
-        <v>488277.1597867474</v>
+        <v>537798.4500679228</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.550916738207842e-06</v>
+        <v>4.752164405368094e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.004231770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>441676.6729579973</v>
+        <v>486471.7207983048</v>
       </c>
     </row>
     <row r="5">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.4271271704791</v>
+        <v>349.7056934885879</v>
       </c>
       <c r="AB5" t="n">
-        <v>428.8448228236105</v>
+        <v>478.4827577574351</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.9164748208134</v>
+        <v>432.817034911833</v>
       </c>
       <c r="AD5" t="n">
-        <v>313427.1271704792</v>
+        <v>349705.6934885879</v>
       </c>
       <c r="AE5" t="n">
-        <v>428844.8228236104</v>
+        <v>478482.7577574351</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.712507737636098e-06</v>
+        <v>5.053196181203438e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.647786458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>387916.4748208134</v>
+        <v>432817.034911833</v>
       </c>
     </row>
     <row r="6">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>294.7502787007301</v>
+        <v>330.8582528182466</v>
       </c>
       <c r="AB6" t="n">
-        <v>403.2903347828978</v>
+        <v>452.6948579418755</v>
       </c>
       <c r="AC6" t="n">
-        <v>364.800871252757</v>
+        <v>409.4902960611258</v>
       </c>
       <c r="AD6" t="n">
-        <v>294750.2787007301</v>
+        <v>330858.2528182465</v>
       </c>
       <c r="AE6" t="n">
-        <v>403290.3347828978</v>
+        <v>452694.8579418755</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.80916117759697e-06</v>
+        <v>5.233254209032732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.452473958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>364800.871252757</v>
+        <v>409490.2960611258</v>
       </c>
     </row>
     <row r="7">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>280.9236371792031</v>
+        <v>317.0316112967195</v>
       </c>
       <c r="AB7" t="n">
-        <v>384.3721138647714</v>
+        <v>433.7766370237491</v>
       </c>
       <c r="AC7" t="n">
-        <v>347.6881787871669</v>
+        <v>392.3776035955356</v>
       </c>
       <c r="AD7" t="n">
-        <v>280923.6371792031</v>
+        <v>317031.6112967195</v>
       </c>
       <c r="AE7" t="n">
-        <v>384372.1138647714</v>
+        <v>433776.6370237491</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.872781163394001e-06</v>
+        <v>5.351773417224168e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.332031249999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>347688.1787871668</v>
+        <v>392377.6035955356</v>
       </c>
     </row>
     <row r="8">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>268.9164920970015</v>
+        <v>293.1022924842916</v>
       </c>
       <c r="AB8" t="n">
-        <v>367.9434082454478</v>
+        <v>401.035487337546</v>
       </c>
       <c r="AC8" t="n">
-        <v>332.8274057743184</v>
+        <v>362.7612232828914</v>
       </c>
       <c r="AD8" t="n">
-        <v>268916.4920970015</v>
+        <v>293102.2924842917</v>
       </c>
       <c r="AE8" t="n">
-        <v>367943.4082454478</v>
+        <v>401035.487337546</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.92388419932268e-06</v>
+        <v>5.446974497176754e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.239257812499999</v>
       </c>
       <c r="AH8" t="n">
-        <v>332827.4057743184</v>
+        <v>362761.2232828914</v>
       </c>
     </row>
     <row r="9">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>261.9700463453673</v>
+        <v>286.1558467326574</v>
       </c>
       <c r="AB9" t="n">
-        <v>358.4389747125038</v>
+        <v>391.531053804602</v>
       </c>
       <c r="AC9" t="n">
-        <v>324.2300620382023</v>
+        <v>354.1638795467754</v>
       </c>
       <c r="AD9" t="n">
-        <v>261970.0463453673</v>
+        <v>286155.8467326574</v>
       </c>
       <c r="AE9" t="n">
-        <v>358438.9747125038</v>
+        <v>391531.0538046021</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.951176796779986e-06</v>
+        <v>5.497818536193791e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.1904296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>324230.0620382023</v>
+        <v>354163.8795467754</v>
       </c>
     </row>
     <row r="10">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>262.5071061990503</v>
+        <v>286.6929065863404</v>
       </c>
       <c r="AB10" t="n">
-        <v>359.1738036977215</v>
+        <v>392.2658827898197</v>
       </c>
       <c r="AC10" t="n">
-        <v>324.8947599764097</v>
+        <v>354.8285774849828</v>
       </c>
       <c r="AD10" t="n">
-        <v>262507.1061990503</v>
+        <v>286692.9065863405</v>
       </c>
       <c r="AE10" t="n">
-        <v>359173.8036977215</v>
+        <v>392265.8827898197</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.949576885894558e-06</v>
+        <v>5.494838023561757e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.193684895833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>324894.7599764097</v>
+        <v>354828.5774849828</v>
       </c>
     </row>
   </sheetData>
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>406.9697773674355</v>
+        <v>451.2811191232796</v>
       </c>
       <c r="AB2" t="n">
-        <v>556.8340036335571</v>
+        <v>617.4627363023327</v>
       </c>
       <c r="AC2" t="n">
-        <v>503.6905478482022</v>
+        <v>558.5329593640305</v>
       </c>
       <c r="AD2" t="n">
-        <v>406969.7773674355</v>
+        <v>451281.1191232795</v>
       </c>
       <c r="AE2" t="n">
-        <v>556834.0036335571</v>
+        <v>617462.7363023327</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.215193875042169e-06</v>
+        <v>4.440350263255278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.48046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>503690.5478482022</v>
+        <v>558532.9593640305</v>
       </c>
     </row>
     <row r="3">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.1263488932873</v>
+        <v>295.4877993606144</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.6528347541497</v>
+        <v>404.2994430868667</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.4235115776279</v>
+        <v>365.7136716764876</v>
       </c>
       <c r="AD3" t="n">
-        <v>262126.3488932873</v>
+        <v>295487.7993606144</v>
       </c>
       <c r="AE3" t="n">
-        <v>358652.8347541497</v>
+        <v>404299.4430868667</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.854797125628873e-06</v>
+        <v>5.722433287282932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.804036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>324423.511577628</v>
+        <v>365713.6716764876</v>
       </c>
     </row>
     <row r="4">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.0702762806566</v>
+        <v>261.2611345473944</v>
       </c>
       <c r="AB4" t="n">
-        <v>312.0558137575159</v>
+        <v>357.4690103155361</v>
       </c>
       <c r="AC4" t="n">
-        <v>282.2736448656764</v>
+        <v>323.3526696819276</v>
       </c>
       <c r="AD4" t="n">
-        <v>228070.2762806566</v>
+        <v>261261.1345473944</v>
       </c>
       <c r="AE4" t="n">
-        <v>312055.8137575159</v>
+        <v>357469.0103155361</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.085306797600903e-06</v>
+        <v>6.184489315044569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>282273.6448656764</v>
+        <v>323352.6696819276</v>
       </c>
     </row>
     <row r="5">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.3482183537877</v>
+        <v>240.5892748405565</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.7536651950554</v>
+        <v>329.1848598863995</v>
       </c>
       <c r="AC5" t="n">
-        <v>270.2410346923302</v>
+        <v>297.7679188727919</v>
       </c>
       <c r="AD5" t="n">
-        <v>218348.2183537877</v>
+        <v>240589.2748405565</v>
       </c>
       <c r="AE5" t="n">
-        <v>298753.6651950554</v>
+        <v>329184.8598863995</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.144563259212088e-06</v>
+        <v>6.303268735608736e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.270182291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>270241.0346923302</v>
+        <v>297767.9188727919</v>
       </c>
     </row>
   </sheetData>
@@ -11638,28 +11638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.2306348870321</v>
+        <v>337.7262900599486</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.9475793088154</v>
+        <v>462.092009492391</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.3953892835696</v>
+        <v>417.990596656645</v>
       </c>
       <c r="AD2" t="n">
-        <v>295230.6348870321</v>
+        <v>337726.2900599486</v>
       </c>
       <c r="AE2" t="n">
-        <v>403947.5793088154</v>
+        <v>462092.009492391</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.600004887614043e-06</v>
+        <v>5.439372823778274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.638997395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>365395.3892835695</v>
+        <v>417990.596656645</v>
       </c>
     </row>
     <row r="3">
@@ -11744,28 +11744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.3392112029822</v>
+        <v>239.1043660230057</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.6906559282132</v>
+        <v>327.1531421326737</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.6156178888442</v>
+        <v>295.9301054099474</v>
       </c>
       <c r="AD3" t="n">
-        <v>207339.2112029822</v>
+        <v>239104.3660230057</v>
       </c>
       <c r="AE3" t="n">
-        <v>283690.6559282131</v>
+        <v>327153.1421326738</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.162428951208466e-06</v>
+        <v>6.615999137647178e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.458984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>256615.6178888442</v>
+        <v>295930.1054099475</v>
       </c>
     </row>
     <row r="4">
@@ -11850,28 +11850,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.7108019181703</v>
+        <v>232.4759567381938</v>
       </c>
       <c r="AB4" t="n">
-        <v>274.6213739199588</v>
+        <v>318.0838601244194</v>
       </c>
       <c r="AC4" t="n">
-        <v>248.4118954266375</v>
+        <v>287.7263829477407</v>
       </c>
       <c r="AD4" t="n">
-        <v>200710.8019181703</v>
+        <v>232475.9567381938</v>
       </c>
       <c r="AE4" t="n">
-        <v>274621.3739199588</v>
+        <v>318083.8601244194</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.218533482538175e-06</v>
+        <v>6.733373325849452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.362955729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>248411.8954266375</v>
+        <v>287726.3829477407</v>
       </c>
     </row>
   </sheetData>
@@ -21208,28 +21208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.9201075244477</v>
+        <v>264.631011787112</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.0598109416072</v>
+        <v>362.079825023409</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.513751792201</v>
+        <v>327.5234347054001</v>
       </c>
       <c r="AD2" t="n">
-        <v>233920.1075244477</v>
+        <v>264631.011787112</v>
       </c>
       <c r="AE2" t="n">
-        <v>320059.8109416072</v>
+        <v>362079.825023409</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.92206470327504e-06</v>
+        <v>6.352147215109413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.111653645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>289513.7517922011</v>
+        <v>327523.4347054001</v>
       </c>
     </row>
     <row r="3">
@@ -21314,28 +21314,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.0582980280454</v>
+        <v>218.8544536367269</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.3096599084219</v>
+        <v>299.4463186426971</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.752387103213</v>
+        <v>270.8675822670743</v>
       </c>
       <c r="AD3" t="n">
-        <v>188058.2980280454</v>
+        <v>218854.4536367269</v>
       </c>
       <c r="AE3" t="n">
-        <v>257309.6599084219</v>
+        <v>299446.3186426971</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.244836887589644e-06</v>
+        <v>7.053807390331004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.5029296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>232752.387103213</v>
+        <v>270867.5822670743</v>
       </c>
     </row>
   </sheetData>
@@ -21611,28 +21611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.1547590521484</v>
+        <v>204.6066397292492</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.0227127345312</v>
+        <v>279.9518310853083</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.0198433087193</v>
+        <v>253.2336212414714</v>
       </c>
       <c r="AD2" t="n">
-        <v>176154.7590521484</v>
+        <v>204606.6397292492</v>
       </c>
       <c r="AE2" t="n">
-        <v>241022.7127345312</v>
+        <v>279951.8310853083</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.131203374494715e-06</v>
+        <v>7.447651654510093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.121419270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>218019.8433087193</v>
+        <v>253233.6212414714</v>
       </c>
     </row>
   </sheetData>
@@ -21908,28 +21908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>539.497210281899</v>
+        <v>585.5049841404926</v>
       </c>
       <c r="AB2" t="n">
-        <v>738.1638840448268</v>
+        <v>801.1137499578869</v>
       </c>
       <c r="AC2" t="n">
-        <v>667.7145589711057</v>
+        <v>724.6565780321151</v>
       </c>
       <c r="AD2" t="n">
-        <v>539497.210281899</v>
+        <v>585504.9841404926</v>
       </c>
       <c r="AE2" t="n">
-        <v>738163.8840448267</v>
+        <v>801113.7499578869</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.901485254913794e-06</v>
+        <v>3.68998082377761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.429361979166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>667714.5589711057</v>
+        <v>724656.5780321151</v>
       </c>
     </row>
     <row r="3">
@@ -22014,28 +22014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.2482381826752</v>
+        <v>361.7327557401153</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.7554766548812</v>
+        <v>494.938714926514</v>
       </c>
       <c r="AC3" t="n">
-        <v>405.022322391697</v>
+        <v>447.7024586247759</v>
       </c>
       <c r="AD3" t="n">
-        <v>327248.2381826752</v>
+        <v>361732.7557401153</v>
       </c>
       <c r="AE3" t="n">
-        <v>447755.4766548812</v>
+        <v>494938.714926514</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.604017535640657e-06</v>
+        <v>5.05329964903161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.155598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>405022.322391697</v>
+        <v>447702.4586247759</v>
       </c>
     </row>
     <row r="4">
@@ -22120,28 +22120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>272.2951361606779</v>
+        <v>306.8649050641387</v>
       </c>
       <c r="AB4" t="n">
-        <v>372.5662181086262</v>
+        <v>419.8661010329082</v>
       </c>
       <c r="AC4" t="n">
-        <v>337.0090211523094</v>
+        <v>379.7946696361005</v>
       </c>
       <c r="AD4" t="n">
-        <v>272295.1361606779</v>
+        <v>306864.9050641386</v>
       </c>
       <c r="AE4" t="n">
-        <v>372566.2181086262</v>
+        <v>419866.1010329082</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.860746110893662e-06</v>
+        <v>5.551501524198021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.602213541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>337009.0211523094</v>
+        <v>379794.6696361005</v>
       </c>
     </row>
     <row r="5">
@@ -22226,28 +22226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.9483858778515</v>
+        <v>283.3475625807231</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.6221643855726</v>
+        <v>387.6886355351726</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.1136630829253</v>
+        <v>350.6881762841124</v>
       </c>
       <c r="AD5" t="n">
-        <v>248948.3858778515</v>
+        <v>283347.5625807231</v>
       </c>
       <c r="AE5" t="n">
-        <v>340622.1643855726</v>
+        <v>387688.6355351727</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.998711869976692e-06</v>
+        <v>5.819234867929568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.345052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>308113.6630829253</v>
+        <v>350688.1762841124</v>
       </c>
     </row>
     <row r="6">
@@ -22332,28 +22332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>234.8975806399561</v>
+        <v>257.944182750814</v>
       </c>
       <c r="AB6" t="n">
-        <v>321.3972327813156</v>
+        <v>352.9306105337024</v>
       </c>
       <c r="AC6" t="n">
-        <v>290.7235319686114</v>
+        <v>319.2474084056942</v>
       </c>
       <c r="AD6" t="n">
-        <v>234897.5806399561</v>
+        <v>257944.182750814</v>
       </c>
       <c r="AE6" t="n">
-        <v>321397.2327813156</v>
+        <v>352930.6105337024</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.069418090548865e-06</v>
+        <v>5.956445817821966e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>290723.5319686115</v>
+        <v>319247.4084056942</v>
       </c>
     </row>
     <row r="7">
@@ -22438,28 +22438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>235.7016275374869</v>
+        <v>258.7482296483481</v>
       </c>
       <c r="AB7" t="n">
-        <v>322.4973652185622</v>
+        <v>354.030742971121</v>
       </c>
       <c r="AC7" t="n">
-        <v>291.7186693100933</v>
+        <v>320.2425457472249</v>
       </c>
       <c r="AD7" t="n">
-        <v>235701.6275374869</v>
+        <v>258748.2296483481</v>
       </c>
       <c r="AE7" t="n">
-        <v>322497.3652185622</v>
+        <v>354030.742971121</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.068433324245632e-06</v>
+        <v>5.954534801806751e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.222981770833334</v>
       </c>
       <c r="AH7" t="n">
-        <v>291718.6693100933</v>
+        <v>320242.5457472249</v>
       </c>
     </row>
   </sheetData>
@@ -22735,28 +22735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>763.3564279295405</v>
+        <v>835.1067304451441</v>
       </c>
       <c r="AB2" t="n">
-        <v>1044.457941602001</v>
+        <v>1142.629870903794</v>
       </c>
       <c r="AC2" t="n">
-        <v>944.7763415614335</v>
+        <v>1033.578879715832</v>
       </c>
       <c r="AD2" t="n">
-        <v>763356.4279295405</v>
+        <v>835106.7304451441</v>
       </c>
       <c r="AE2" t="n">
-        <v>1044457.941602001</v>
+        <v>1142629.870903794</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.553529559386628e-06</v>
+        <v>2.915030793134372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.94140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>944776.3415614335</v>
+        <v>1033578.879715832</v>
       </c>
     </row>
     <row r="3">
@@ -22841,28 +22841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.2448386050305</v>
+        <v>452.1068205669567</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.1056222030207</v>
+        <v>618.5924974449487</v>
       </c>
       <c r="AC3" t="n">
-        <v>500.31799790858</v>
+        <v>559.5548976888249</v>
       </c>
       <c r="AD3" t="n">
-        <v>404244.8386050305</v>
+        <v>452106.8205669568</v>
       </c>
       <c r="AE3" t="n">
-        <v>553105.6222030207</v>
+        <v>618592.4974449486</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.317056456633273e-06</v>
+        <v>4.347706729946978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>500317.9979085799</v>
+        <v>559554.8976888249</v>
       </c>
     </row>
     <row r="4">
@@ -22947,28 +22947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>330.118813892194</v>
+        <v>366.0793060045674</v>
       </c>
       <c r="AB4" t="n">
-        <v>451.6831249815074</v>
+        <v>500.8858567546016</v>
       </c>
       <c r="AC4" t="n">
-        <v>408.5751214745191</v>
+        <v>453.0820135836569</v>
       </c>
       <c r="AD4" t="n">
-        <v>330118.813892194</v>
+        <v>366079.3060045674</v>
       </c>
       <c r="AE4" t="n">
-        <v>451683.1249815074</v>
+        <v>500885.8567546016</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.607246023098626e-06</v>
+        <v>4.892216177470336e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.924479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>408575.121474519</v>
+        <v>453082.0135836569</v>
       </c>
     </row>
     <row r="5">
@@ -23053,28 +23053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>301.1054564714473</v>
+        <v>337.0659485838207</v>
       </c>
       <c r="AB5" t="n">
-        <v>411.9857693794488</v>
+        <v>461.188501152543</v>
       </c>
       <c r="AC5" t="n">
-        <v>372.6664257755323</v>
+        <v>417.1733178846702</v>
       </c>
       <c r="AD5" t="n">
-        <v>301105.4564714473</v>
+        <v>337065.9485838207</v>
       </c>
       <c r="AE5" t="n">
-        <v>411985.7693794487</v>
+        <v>461188.501152543</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.762969070374508e-06</v>
+        <v>5.184413693293042e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.5908203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>372666.4257755323</v>
+        <v>417173.3178846702</v>
       </c>
     </row>
     <row r="6">
@@ -23159,28 +23159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>283.3309842181162</v>
+        <v>319.1208841298973</v>
       </c>
       <c r="AB6" t="n">
-        <v>387.6659522880681</v>
+        <v>436.6352722863153</v>
       </c>
       <c r="AC6" t="n">
-        <v>350.6676578942754</v>
+        <v>394.9634147207622</v>
       </c>
       <c r="AD6" t="n">
-        <v>283330.9842181162</v>
+        <v>319120.8841298973</v>
       </c>
       <c r="AE6" t="n">
-        <v>387665.9522880681</v>
+        <v>436635.2722863153</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.855871485537877e-06</v>
+        <v>5.358735063183613e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.408528645833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>350667.6578942754</v>
+        <v>394963.4147207622</v>
       </c>
     </row>
     <row r="7">
@@ -23265,28 +23265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>269.4113783743855</v>
+        <v>305.2012782861667</v>
       </c>
       <c r="AB7" t="n">
-        <v>368.6205334830062</v>
+        <v>417.5898534812534</v>
       </c>
       <c r="AC7" t="n">
-        <v>333.4399071295554</v>
+        <v>377.7356639560422</v>
       </c>
       <c r="AD7" t="n">
-        <v>269411.3783743855</v>
+        <v>305201.2782861667</v>
       </c>
       <c r="AE7" t="n">
-        <v>368620.5334830062</v>
+        <v>417589.8534812534</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.918787012865061e-06</v>
+        <v>5.476789269759149e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.291341145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>333439.9071295554</v>
+        <v>377735.6639560422</v>
       </c>
     </row>
     <row r="8">
@@ -23371,28 +23371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>258.4240635555825</v>
+        <v>282.3978144723825</v>
       </c>
       <c r="AB8" t="n">
-        <v>353.5872046218004</v>
+        <v>386.3891482734116</v>
       </c>
       <c r="AC8" t="n">
-        <v>319.8413380754535</v>
+        <v>349.512710262772</v>
       </c>
       <c r="AD8" t="n">
-        <v>258424.0635555825</v>
+        <v>282397.8144723825</v>
       </c>
       <c r="AE8" t="n">
-        <v>353587.2046218004</v>
+        <v>386389.1482734116</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.963482658975323e-06</v>
+        <v>5.560655832801497e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.211588541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>319841.3380754535</v>
+        <v>349512.710262772</v>
       </c>
     </row>
     <row r="9">
@@ -23477,28 +23477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>256.0530549396895</v>
+        <v>280.0268058564927</v>
       </c>
       <c r="AB9" t="n">
-        <v>350.3430860318524</v>
+        <v>383.1450296836335</v>
       </c>
       <c r="AC9" t="n">
-        <v>316.9068336106865</v>
+        <v>346.5782057980533</v>
       </c>
       <c r="AD9" t="n">
-        <v>256053.0549396895</v>
+        <v>280026.8058564927</v>
       </c>
       <c r="AE9" t="n">
-        <v>350343.0860318523</v>
+        <v>383145.0296836335</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.978001626820058e-06</v>
+        <v>5.587899111242005e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.187174479166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>316906.8336106865</v>
+        <v>346578.2057980533</v>
       </c>
     </row>
   </sheetData>
@@ -23774,28 +23774,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.5583362352241</v>
+        <v>204.1137672335856</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.2607077890127</v>
+        <v>279.2774611927419</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.3803876071197</v>
+        <v>252.6236122649672</v>
       </c>
       <c r="AD2" t="n">
-        <v>167558.3362352242</v>
+        <v>204113.7672335856</v>
       </c>
       <c r="AE2" t="n">
-        <v>229260.7077890127</v>
+        <v>279277.4611927419</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.916680218153922e-06</v>
+        <v>7.294395880107186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.805013020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>207380.3876071197</v>
+        <v>252623.6122649672</v>
       </c>
     </row>
   </sheetData>
@@ -24071,28 +24071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.2068692106657</v>
+        <v>370.3773162534657</v>
       </c>
       <c r="AB2" t="n">
-        <v>447.6988738023077</v>
+        <v>506.7665839919741</v>
       </c>
       <c r="AC2" t="n">
-        <v>404.9711216359304</v>
+        <v>458.4014924671471</v>
       </c>
       <c r="AD2" t="n">
-        <v>327206.8692106657</v>
+        <v>370377.3162534657</v>
       </c>
       <c r="AE2" t="n">
-        <v>447698.8738023077</v>
+        <v>506766.5839919741</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.461567287036626e-06</v>
+        <v>5.069064795241797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.910807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>404971.1216359304</v>
+        <v>458401.4924671471</v>
       </c>
     </row>
     <row r="3">
@@ -24177,28 +24177,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.693722732702</v>
+        <v>259.1355636557336</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.1723524639488</v>
+        <v>354.5607104479963</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.5699384745122</v>
+        <v>320.7219338719213</v>
       </c>
       <c r="AD3" t="n">
-        <v>226693.722732702</v>
+        <v>259135.5636557336</v>
       </c>
       <c r="AE3" t="n">
-        <v>310172.3524639488</v>
+        <v>354560.7104479963</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.046415524554435e-06</v>
+        <v>6.27343309627237e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.584309895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>280569.9384745123</v>
+        <v>320721.9338719213</v>
       </c>
     </row>
     <row r="4">
@@ -24283,28 +24283,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.4010780780117</v>
+        <v>238.6723268004478</v>
       </c>
       <c r="AB4" t="n">
-        <v>282.4070607991168</v>
+        <v>326.5620070081452</v>
       </c>
       <c r="AC4" t="n">
-        <v>255.4545272773313</v>
+        <v>295.3953873920403</v>
       </c>
       <c r="AD4" t="n">
-        <v>206401.0780780117</v>
+        <v>238672.3268004479</v>
       </c>
       <c r="AE4" t="n">
-        <v>282407.0607991169</v>
+        <v>326562.0070081452</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.197226104743534e-06</v>
+        <v>6.583994829365136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.320638020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>255454.5272773313</v>
+        <v>295395.3873920403</v>
       </c>
     </row>
     <row r="5">
@@ -24389,28 +24389,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.4909436127277</v>
+        <v>239.7621923351639</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.8982629051885</v>
+        <v>328.0532091142169</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.8034111473153</v>
+        <v>296.7442712620243</v>
       </c>
       <c r="AD5" t="n">
-        <v>207490.9436127277</v>
+        <v>239762.1923351639</v>
       </c>
       <c r="AE5" t="n">
-        <v>283898.2629051885</v>
+        <v>328053.2091142169</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.197017081070369e-06</v>
+        <v>6.583564390372632e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.320638020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>256803.4111473153</v>
+        <v>296744.2712620243</v>
       </c>
     </row>
   </sheetData>
@@ -24686,28 +24686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>445.359367445929</v>
+        <v>490.4045967610232</v>
       </c>
       <c r="AB2" t="n">
-        <v>609.3603344081357</v>
+        <v>670.9932044123116</v>
       </c>
       <c r="AC2" t="n">
-        <v>551.2038393348233</v>
+        <v>606.9545547280769</v>
       </c>
       <c r="AD2" t="n">
-        <v>445359.367445929</v>
+        <v>490404.5967610232</v>
       </c>
       <c r="AE2" t="n">
-        <v>609360.3344081357</v>
+        <v>670993.2044123115</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.102003964527266e-06</v>
+        <v>4.164456857425932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.791341145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>551203.8393348233</v>
+        <v>606954.5547280769</v>
       </c>
     </row>
     <row r="3">
@@ -24792,28 +24792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.7212341406936</v>
+        <v>314.5051561270143</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.0951770980909</v>
+        <v>430.3198296012228</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.4376724768152</v>
+        <v>389.2507090217554</v>
       </c>
       <c r="AD3" t="n">
-        <v>280721.2341406936</v>
+        <v>314505.1561270143</v>
       </c>
       <c r="AE3" t="n">
-        <v>384095.1770980909</v>
+        <v>430319.8296012228</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.762087545537264e-06</v>
+        <v>5.472203960571655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.929361979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>347437.6724768152</v>
+        <v>389250.7090217554</v>
       </c>
     </row>
     <row r="4">
@@ -24898,28 +24898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.3238686546303</v>
+        <v>276.9371984403618</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.9264517845779</v>
+        <v>378.9176925130238</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.1524184915666</v>
+        <v>342.7543197539015</v>
       </c>
       <c r="AD4" t="n">
-        <v>243323.8686546303</v>
+        <v>276937.1984403618</v>
       </c>
       <c r="AE4" t="n">
-        <v>332926.4517845779</v>
+        <v>378917.6925130238</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.00509087604628e-06</v>
+        <v>5.953638298086428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.44921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>301152.4184915666</v>
+        <v>342754.3197539016</v>
       </c>
     </row>
     <row r="5">
@@ -25004,28 +25004,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>224.5892386086601</v>
+        <v>247.1119427747579</v>
       </c>
       <c r="AB5" t="n">
-        <v>307.2929044421491</v>
+        <v>338.1094619137695</v>
       </c>
       <c r="AC5" t="n">
-        <v>277.9653009305814</v>
+        <v>305.8407694084302</v>
       </c>
       <c r="AD5" t="n">
-        <v>224589.2386086601</v>
+        <v>247111.9427747579</v>
       </c>
       <c r="AE5" t="n">
-        <v>307292.904442149</v>
+        <v>338109.4619137695</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.116278735347507e-06</v>
+        <v>6.173921918357164e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.255533854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>277965.3009305814</v>
+        <v>305840.7694084302</v>
       </c>
     </row>
     <row r="6">
@@ -25110,28 +25110,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>224.4530900386184</v>
+        <v>246.9757942047162</v>
       </c>
       <c r="AB6" t="n">
-        <v>307.1066199621672</v>
+        <v>337.9231774337876</v>
       </c>
       <c r="AC6" t="n">
-        <v>277.796795179917</v>
+        <v>305.6722636577659</v>
       </c>
       <c r="AD6" t="n">
-        <v>224453.0900386184</v>
+        <v>246975.7942047162</v>
       </c>
       <c r="AE6" t="n">
-        <v>307106.6199621672</v>
+        <v>337923.1774337876</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.120001767740399e-06</v>
+        <v>6.181297930981613e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.2490234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>277796.795179917</v>
+        <v>305672.2636577659</v>
       </c>
     </row>
   </sheetData>
